--- a/biology/Botanique/Cabomba_caroliniana/Cabomba_caroliniana.xlsx
+++ b/biology/Botanique/Cabomba_caroliniana/Cabomba_caroliniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cabomba caroliniana est une espèce de plantes herbacées vivaces aquatiques originaire d'Amérique du Nord et du Sud. C'est une plante d'importance nationale en Australie et elle figure depuis 2016 sur la liste des espèces exotiques envahissantes préoccupantes pour l'Union européenne[1],[2]. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne[3].
-En France, cette espèce est légalement inscrite sur la liste annexée à l'Arrêté du 14 février 2018 relatif aux espèces végétales exotiques envahissantes sur le territoire métropolitain[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabomba caroliniana est une espèce de plantes herbacées vivaces aquatiques originaire d'Amérique du Nord et du Sud. C'est une plante d'importance nationale en Australie et elle figure depuis 2016 sur la liste des espèces exotiques envahissantes préoccupantes pour l'Union européenne,. Cela signifie qu'elle ne peut pas être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne.
+En France, cette espèce est légalement inscrite sur la liste annexée à l'Arrêté du 14 février 2018 relatif aux espèces végétales exotiques envahissantes sur le territoire métropolitain.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cabomba caroliniana est communément appelée Cabomba de Caroline, Éventail de Caroline ou encore Ondine de Caroline[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cabomba caroliniana est communément appelée Cabomba de Caroline, Éventail de Caroline ou encore Ondine de Caroline.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire du sud-est de l'Amérique du Sud (sud du Brésil, Paraguay, Uruguay et nord-est de l'Argentine) [6] et des côtes (est et ouest) des États-Unis[7]. Elle est consommée comme légume dans certaines régions. 
-Elle est présente en France, en tant qu'espèce invasive[8]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire du sud-est de l'Amérique du Sud (sud du Brésil, Paraguay, Uruguay et nord-est de l'Argentine)  et des côtes (est et ouest) des États-Unis. Elle est consommée comme légume dans certaines régions. 
+Elle est présente en France, en tant qu'espèce invasive. 
 </t>
         </is>
       </c>
